--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pomc-Mc1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pomc-Mc1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Pomc</t>
+  </si>
+  <si>
+    <t>Mc1r</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Pomc</t>
-  </si>
-  <si>
-    <t>Mc1r</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.4951615</v>
+        <v>0.8055585</v>
       </c>
       <c r="H2">
-        <v>2.990323</v>
+        <v>1.611117</v>
       </c>
       <c r="I2">
-        <v>0.6020739711267923</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5021622551131892</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6627425</v>
+        <v>0.989536</v>
       </c>
       <c r="N2">
-        <v>1.325485</v>
+        <v>1.979072</v>
       </c>
       <c r="O2">
-        <v>0.1766083511268686</v>
+        <v>0.3139139725126686</v>
       </c>
       <c r="P2">
-        <v>0.1373859271892988</v>
+        <v>0.2605206221095637</v>
       </c>
       <c r="Q2">
-        <v>0.9909070704137499</v>
+        <v>0.797129135856</v>
       </c>
       <c r="R2">
-        <v>3.963628281655</v>
+        <v>3.188516543424</v>
       </c>
       <c r="S2">
-        <v>0.1063312912971087</v>
+        <v>0.3139139725126686</v>
       </c>
       <c r="T2">
-        <v>0.06899002701819472</v>
+        <v>0.2605206221095637</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.4951615</v>
+        <v>0.8055585</v>
       </c>
       <c r="H3">
-        <v>2.990323</v>
+        <v>1.611117</v>
       </c>
       <c r="I3">
-        <v>0.6020739711267923</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5021622551131892</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5012916666666666</v>
+        <v>0.5012916666666667</v>
       </c>
       <c r="N3">
         <v>1.503875</v>
       </c>
       <c r="O3">
-        <v>0.1335847552912931</v>
+        <v>0.15902651189126</v>
       </c>
       <c r="P3">
-        <v>0.1558759708724027</v>
+        <v>0.1979667493527371</v>
       </c>
       <c r="Q3">
-        <v>0.7495120002708331</v>
+        <v>0.4038197630625</v>
       </c>
       <c r="R3">
-        <v>4.497072001624999</v>
+        <v>2.422918578375</v>
       </c>
       <c r="S3">
-        <v>0.08042790410022962</v>
+        <v>0.15902651189126</v>
       </c>
       <c r="T3">
-        <v>0.07827502905124355</v>
+        <v>0.1979667493527371</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.4951615</v>
+        <v>0.8055585</v>
       </c>
       <c r="H4">
-        <v>2.990323</v>
+        <v>1.611117</v>
       </c>
       <c r="I4">
-        <v>0.6020739711267923</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5021622551131892</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3493176666666667</v>
+        <v>0.163797</v>
       </c>
       <c r="N4">
-        <v>1.047953</v>
+        <v>0.491391</v>
       </c>
       <c r="O4">
-        <v>0.0930865564370553</v>
+        <v>0.05196189623789087</v>
       </c>
       <c r="P4">
-        <v>0.1086198595652212</v>
+        <v>0.0646856147826055</v>
       </c>
       <c r="Q4">
-        <v>0.5222863264698333</v>
+        <v>0.1319480656245</v>
       </c>
       <c r="R4">
-        <v>3.133717958819</v>
+        <v>0.791688393747</v>
       </c>
       <c r="S4">
-        <v>0.05604499269257615</v>
+        <v>0.05196189623789087</v>
       </c>
       <c r="T4">
-        <v>0.05454479362934941</v>
+        <v>0.0646856147826055</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>1.4951615</v>
+        <v>0.8055585</v>
       </c>
       <c r="H5">
-        <v>2.990323</v>
+        <v>1.611117</v>
       </c>
       <c r="I5">
-        <v>0.6020739711267923</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.5021622551131892</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9471965</v>
+        <v>0.8706165</v>
       </c>
       <c r="N5">
-        <v>1.894393</v>
+        <v>1.741233</v>
       </c>
       <c r="O5">
-        <v>0.2524099662510568</v>
+        <v>0.2761887228459356</v>
       </c>
       <c r="P5">
-        <v>0.196352986843244</v>
+        <v>0.2292120268477862</v>
       </c>
       <c r="Q5">
-        <v>1.41621173973475</v>
+        <v>0.70133252181525</v>
       </c>
       <c r="R5">
-        <v>5.664846958938999</v>
+        <v>2.805330087261</v>
       </c>
       <c r="S5">
-        <v>0.1519694707327534</v>
+        <v>0.2761887228459356</v>
       </c>
       <c r="T5">
-        <v>0.0986010586714138</v>
+        <v>0.2292120268477862</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>1.4951615</v>
+        <v>0.8055585</v>
       </c>
       <c r="H6">
-        <v>2.990323</v>
+        <v>1.611117</v>
       </c>
       <c r="I6">
-        <v>0.6020739711267923</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.5021622551131892</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6662906666666667</v>
+        <v>0.098661</v>
       </c>
       <c r="N6">
-        <v>1.998872</v>
+        <v>0.295983</v>
       </c>
       <c r="O6">
-        <v>0.1775538704869871</v>
+        <v>0.03129857472802647</v>
       </c>
       <c r="P6">
-        <v>0.207182188446288</v>
+        <v>0.03896254168309945</v>
       </c>
       <c r="Q6">
-        <v>0.9962121526093333</v>
+        <v>0.0794772071685</v>
       </c>
       <c r="R6">
-        <v>5.977272915655999</v>
+        <v>0.476863243011</v>
       </c>
       <c r="S6">
-        <v>0.1069005638930325</v>
+        <v>0.03129857472802647</v>
       </c>
       <c r="T6">
-        <v>0.1040390749694737</v>
+        <v>0.03896254168309945</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>1.4951615</v>
+        <v>0.8055585</v>
       </c>
       <c r="H7">
-        <v>2.990323</v>
+        <v>1.611117</v>
       </c>
       <c r="I7">
-        <v>0.6020739711267923</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.5021622551131892</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,400 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6257723333333333</v>
+        <v>0.52835</v>
       </c>
       <c r="N7">
-        <v>1.877317</v>
+        <v>1.58505</v>
       </c>
       <c r="O7">
-        <v>0.166756500406739</v>
+        <v>0.1676103217842185</v>
       </c>
       <c r="P7">
-        <v>0.1945830670835451</v>
+        <v>0.2086524452242081</v>
       </c>
       <c r="Q7">
-        <v>0.9356307005651664</v>
+        <v>0.425616833475</v>
       </c>
       <c r="R7">
-        <v>5.613784203390999</v>
+        <v>2.553701000849999</v>
       </c>
       <c r="S7">
-        <v>0.1003997484110919</v>
+        <v>0.1676103217842185</v>
       </c>
       <c r="T7">
-        <v>0.09771227177351401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.9881903333333333</v>
-      </c>
-      <c r="H8">
-        <v>2.964571</v>
-      </c>
-      <c r="I8">
-        <v>0.3979260288732078</v>
-      </c>
-      <c r="J8">
-        <v>0.4978377448868108</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.6627425</v>
-      </c>
-      <c r="N8">
-        <v>1.325485</v>
-      </c>
-      <c r="O8">
-        <v>0.1766083511268686</v>
-      </c>
-      <c r="P8">
-        <v>0.1373859271892988</v>
-      </c>
-      <c r="Q8">
-        <v>0.6549157319891666</v>
-      </c>
-      <c r="R8">
-        <v>3.929494391935</v>
-      </c>
-      <c r="S8">
-        <v>0.07027705982975994</v>
-      </c>
-      <c r="T8">
-        <v>0.0683959001711041</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.9881903333333333</v>
-      </c>
-      <c r="H9">
-        <v>2.964571</v>
-      </c>
-      <c r="I9">
-        <v>0.3979260288732078</v>
-      </c>
-      <c r="J9">
-        <v>0.4978377448868108</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.5012916666666666</v>
-      </c>
-      <c r="N9">
-        <v>1.503875</v>
-      </c>
-      <c r="O9">
-        <v>0.1335847552912931</v>
-      </c>
-      <c r="P9">
-        <v>0.1558759708724027</v>
-      </c>
-      <c r="Q9">
-        <v>0.4953715791805555</v>
-      </c>
-      <c r="R9">
-        <v>4.458344212625</v>
-      </c>
-      <c r="S9">
-        <v>0.0531568511910635</v>
-      </c>
-      <c r="T9">
-        <v>0.07760094182115916</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.9881903333333333</v>
-      </c>
-      <c r="H10">
-        <v>2.964571</v>
-      </c>
-      <c r="I10">
-        <v>0.3979260288732078</v>
-      </c>
-      <c r="J10">
-        <v>0.4978377448868108</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.3493176666666667</v>
-      </c>
-      <c r="N10">
-        <v>1.047953</v>
-      </c>
-      <c r="O10">
-        <v>0.0930865564370553</v>
-      </c>
-      <c r="P10">
-        <v>0.1086198595652212</v>
-      </c>
-      <c r="Q10">
-        <v>0.3451923414625556</v>
-      </c>
-      <c r="R10">
-        <v>3.106731073163</v>
-      </c>
-      <c r="S10">
-        <v>0.03704156374447915</v>
-      </c>
-      <c r="T10">
-        <v>0.05407506593587182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.9881903333333333</v>
-      </c>
-      <c r="H11">
-        <v>2.964571</v>
-      </c>
-      <c r="I11">
-        <v>0.3979260288732078</v>
-      </c>
-      <c r="J11">
-        <v>0.4978377448868108</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.9471965</v>
-      </c>
-      <c r="N11">
-        <v>1.894393</v>
-      </c>
-      <c r="O11">
-        <v>0.2524099662510568</v>
-      </c>
-      <c r="P11">
-        <v>0.196352986843244</v>
-      </c>
-      <c r="Q11">
-        <v>0.9360104250671666</v>
-      </c>
-      <c r="R11">
-        <v>5.616062550403</v>
-      </c>
-      <c r="S11">
-        <v>0.1004404955183034</v>
-      </c>
-      <c r="T11">
-        <v>0.09775192817183023</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.9881903333333333</v>
-      </c>
-      <c r="H12">
-        <v>2.964571</v>
-      </c>
-      <c r="I12">
-        <v>0.3979260288732078</v>
-      </c>
-      <c r="J12">
-        <v>0.4978377448868108</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.6662906666666667</v>
-      </c>
-      <c r="N12">
-        <v>1.998872</v>
-      </c>
-      <c r="O12">
-        <v>0.1775538704869871</v>
-      </c>
-      <c r="P12">
-        <v>0.207182188446288</v>
-      </c>
-      <c r="Q12">
-        <v>0.6584219959902222</v>
-      </c>
-      <c r="R12">
-        <v>5.925797963911999</v>
-      </c>
-      <c r="S12">
-        <v>0.07065330659395462</v>
-      </c>
-      <c r="T12">
-        <v>0.1031431134768143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.9881903333333333</v>
-      </c>
-      <c r="H13">
-        <v>2.964571</v>
-      </c>
-      <c r="I13">
-        <v>0.3979260288732078</v>
-      </c>
-      <c r="J13">
-        <v>0.4978377448868108</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.6257723333333333</v>
-      </c>
-      <c r="N13">
-        <v>1.877317</v>
-      </c>
-      <c r="O13">
-        <v>0.166756500406739</v>
-      </c>
-      <c r="P13">
-        <v>0.1945830670835451</v>
-      </c>
-      <c r="Q13">
-        <v>0.6183821706674444</v>
-      </c>
-      <c r="R13">
-        <v>5.565439536006999</v>
-      </c>
-      <c r="S13">
-        <v>0.06635675199564708</v>
-      </c>
-      <c r="T13">
-        <v>0.09687079531003114</v>
+        <v>0.2086524452242081</v>
       </c>
     </row>
   </sheetData>
